--- a/va_facility_data_2025-02-20/Hagerstown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hagerstown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hagerstown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hagerstown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re88d53729e254f6e9e45fddc91c40176"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd8d0a56984564dd2a17fd816d83ab647"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1813c362022c411a9af8116f5dd06a91"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R649e34c575554ce4a92722683e5797b0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83c7a2f08dcf40e196928a3b397670f2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R24f78c561dbb4342a736ecea2d3d47a2"/>
   </x:sheets>
 </x:workbook>
 </file>
